--- a/WIP/Users/AnhND/Hospital Data.xlsx
+++ b/WIP/Users/AnhND/Hospital Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents CP\201609JS03-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="182">
   <si>
     <t>Collect Hospital Data</t>
   </si>
@@ -282,6 +282,294 @@
   </si>
   <si>
     <t>Phòng khám đa khoa Hòa Thạch</t>
+  </si>
+  <si>
+    <t>Bệnh viện Hữu Nghị</t>
+  </si>
+  <si>
+    <t>1 Trần Khánh Dư, Bạch Đằng</t>
+  </si>
+  <si>
+    <t>Viện Răng Hàm Mặt</t>
+  </si>
+  <si>
+    <t>Sdt</t>
+  </si>
+  <si>
+    <t>04 3972 2231</t>
+  </si>
+  <si>
+    <t>04 3826 9727</t>
+  </si>
+  <si>
+    <t>40 Tràng Thi, Hàng Bông</t>
+  </si>
+  <si>
+    <t>Bệnh viện Nội Tiết Trung ương</t>
+  </si>
+  <si>
+    <t>50 Ngõ 26 Yên Lãng, Thịnh Quang</t>
+  </si>
+  <si>
+    <t>04 3853 3527</t>
+  </si>
+  <si>
+    <t>Bệnh viện Phổi Trung ương</t>
+  </si>
+  <si>
+    <t>463 Hoàng Hoa Thám, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>04 3832 6249</t>
+  </si>
+  <si>
+    <t>Bệnh viện Châm Cứu Trung ương</t>
+  </si>
+  <si>
+    <t>04 3853 3797</t>
+  </si>
+  <si>
+    <t>49 Thái Thịnh, Thịnh Quang</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Đống Đa</t>
+  </si>
+  <si>
+    <t>192 Nguyễn Lương Bằng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 3851 1251 </t>
+  </si>
+  <si>
+    <t>Bệnh viện Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>42 Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>04 3971 4363</t>
+  </si>
+  <si>
+    <t>Bệnh viện Hữu Nghị Việt Nam Cuba</t>
+  </si>
+  <si>
+    <t>37 Hai Bà Trưng, Tràng Tiền</t>
+  </si>
+  <si>
+    <t>04 3825 3304</t>
+  </si>
+  <si>
+    <t>42A Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>04 3971 8617</t>
+  </si>
+  <si>
+    <t>Ngõ 467 Nguyễn Văn Linh, Sài Đồng</t>
+  </si>
+  <si>
+    <t>04 6681 3935</t>
+  </si>
+  <si>
+    <t>Bệnh viện Tâm thần Hà Nội</t>
+  </si>
+  <si>
+    <t>Bệnh viện Giao thông Vận tải Trung ương</t>
+  </si>
+  <si>
+    <t>Ngõ 84 - Chùa Láng, Láng Thượng</t>
+  </si>
+  <si>
+    <t>Viện Bỏng Quốc gia</t>
+  </si>
+  <si>
+    <t>04 3688 4571</t>
+  </si>
+  <si>
+    <t>04 3766 4751</t>
+  </si>
+  <si>
+    <t>Bệnh viện Quân Y 103</t>
+  </si>
+  <si>
+    <t>261 Phùng Hưng, Phúc La, Hà Đông</t>
+  </si>
+  <si>
+    <t>263 Phùng Hưng, Phúc La, Hà Đông</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đại học Y Hà Nội</t>
+  </si>
+  <si>
+    <t>04 3574 7788</t>
+  </si>
+  <si>
+    <t>1 Tôn Thất Tùng, Trung Tự</t>
+  </si>
+  <si>
+    <t>Bệnh viện quân đội 354</t>
+  </si>
+  <si>
+    <t>120 Đốc Ngữ, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>04 3762 2595</t>
+  </si>
+  <si>
+    <t>Bệnh viện 198 - Bộ Công An</t>
+  </si>
+  <si>
+    <t>9 Trần Bình, Mai Dịch</t>
+  </si>
+  <si>
+    <t>04 3834 3113</t>
+  </si>
+  <si>
+    <t>Bệnh viện Bưu điện</t>
+  </si>
+  <si>
+    <t>04 3640 0144</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Hòe Nhai</t>
+  </si>
+  <si>
+    <t>34 Hòe Nhai, Nguyễn Trung Trực</t>
+  </si>
+  <si>
+    <t>04 3927 2980</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Tràng An</t>
+  </si>
+  <si>
+    <t>59 Ngõ Thông Phong, Quốc Tử Giám</t>
+  </si>
+  <si>
+    <t>04 3732 3665</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Hà Nội</t>
+  </si>
+  <si>
+    <t>29 Hàn Thuyên, Phạm Đình Hồ</t>
+  </si>
+  <si>
+    <t>04 6299 9444</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Hà Thành</t>
+  </si>
+  <si>
+    <t>59 Vũ Thạnh, Ô Chợ Dừa</t>
+  </si>
+  <si>
+    <t>04 3512 1815</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Trí Đức</t>
+  </si>
+  <si>
+    <t>217 Lê Duẩn, Nguyễn Du</t>
+  </si>
+  <si>
+    <t>04 3942 9485</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Bảo Sơn 2</t>
+  </si>
+  <si>
+    <t>52 Nguyễn Chí Thanh, Láng Thượng</t>
+  </si>
+  <si>
+    <t>04 3775 7099</t>
+  </si>
+  <si>
+    <t>16 Nguyễn Như Đổ, Văn Miếu</t>
+  </si>
+  <si>
+    <t>04 3732 5082</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Hồng Hà</t>
+  </si>
+  <si>
+    <t>55 Yên Ninh, Trúc Bạch</t>
+  </si>
+  <si>
+    <t>04 3927 5568</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Quốc tế Thu Cúc</t>
+  </si>
+  <si>
+    <t>286 Thụy Khuê, Bưởi</t>
+  </si>
+  <si>
+    <t>1900 558896</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đông Đô</t>
+  </si>
+  <si>
+    <t>04 6278 4449</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Tâm Anh</t>
+  </si>
+  <si>
+    <t>108 Hoàng Như Tiếp, Bồ Đề</t>
+  </si>
+  <si>
+    <t>04 3872 3872</t>
+  </si>
+  <si>
+    <t>458 Minh Khai, Khu đô thị Times City, Vĩnh Tuy</t>
+  </si>
+  <si>
+    <t>04 3974 3556</t>
+  </si>
+  <si>
+    <t>Bệnh viện Thể Thao Việt Nam</t>
+  </si>
+  <si>
+    <t>Bệnh viện Đa khoa Quốc Tế Vinmec</t>
+  </si>
+  <si>
+    <t>b6 Nguyễn Cơ Thạch, Mỹ Đình 1</t>
+  </si>
+  <si>
+    <t>04 7300 6008</t>
+  </si>
+  <si>
+    <t>5 Xã Đàn, Phương Liên</t>
+  </si>
+  <si>
+    <t>Bệnh viện Ung Bướu Hà Nội</t>
+  </si>
+  <si>
+    <t>11 Phan Chu Trinh</t>
+  </si>
+  <si>
+    <t>04 3825 3140</t>
+  </si>
+  <si>
+    <t>Trung tâm cấp cứu 115 hà nội</t>
+  </si>
+  <si>
+    <t>1 Chùa Thông, Sơn Lộc, Sơn Tây</t>
+  </si>
+  <si>
+    <t>04 3393 0414</t>
+  </si>
+  <si>
+    <t>Bệnh viện Quân Y 105</t>
+  </si>
+  <si>
+    <t>49 Trần Điền, Định Công</t>
   </si>
 </sst>
 </file>
@@ -615,19 +903,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,6 +960,9 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1232,7 +1524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1252,7 +1544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1272,7 +1564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1292,7 +1584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1312,7 +1604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1332,7 +1624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1352,7 +1644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1372,7 +1664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1392,7 +1684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -1412,7 +1704,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -1430,6 +1722,739 @@
       </c>
       <c r="F42" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="1">
+        <v>21.015540000000001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>105.8618871</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1">
+        <v>21.0276368</v>
+      </c>
+      <c r="E44" s="1">
+        <v>105.8459008</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1">
+        <v>21.012347399999999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>105.81503290000001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21.042792599999999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>105.813457</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1">
+        <v>21.0084248</v>
+      </c>
+      <c r="E47" s="1">
+        <v>105.8194472</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="1">
+        <v>21.015560799999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>105.82472009999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="1">
+        <v>21.003459500000002</v>
+      </c>
+      <c r="E49" s="1">
+        <v>105.8594037</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="1">
+        <v>21.004661299999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>105.85893780000001</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1">
+        <v>21.0244021</v>
+      </c>
+      <c r="E51" s="1">
+        <v>105.85030570000001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="1">
+        <v>21.022296499999999</v>
+      </c>
+      <c r="E52" s="1">
+        <v>105.8567074</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1">
+        <v>21.033404399999998</v>
+      </c>
+      <c r="E53" s="1">
+        <v>105.9082667</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="1">
+        <v>21.0259274</v>
+      </c>
+      <c r="E54" s="1">
+        <v>105.80279539999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20.966931500000001</v>
+      </c>
+      <c r="E55" s="1">
+        <v>105.79270630000001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20.967901600000001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>105.7882869</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="1">
+        <v>21.002532800000001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>105.8301845</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="1">
+        <v>21.040004199999998</v>
+      </c>
+      <c r="E58" s="1">
+        <v>105.8122479</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1">
+        <v>21.033292800000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>105.77793250000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="1">
+        <v>21.1157851</v>
+      </c>
+      <c r="E60" s="1">
+        <v>105.4965193</v>
+      </c>
+      <c r="F60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="1">
+        <v>21.0231271</v>
+      </c>
+      <c r="E61" s="1">
+        <v>105.7620874</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20.9914329</v>
+      </c>
+      <c r="E62" s="1">
+        <v>105.83204979999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="1">
+        <v>21.041011300000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>105.84594199999999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="1">
+        <v>21.025607300000001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>105.83538540000001</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="1">
+        <v>21.018330500000001</v>
+      </c>
+      <c r="E65" s="1">
+        <v>105.8555922</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="1">
+        <v>21.026586200000001</v>
+      </c>
+      <c r="E66" s="1">
+        <v>105.82664029999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="1">
+        <v>21.0184195</v>
+      </c>
+      <c r="E67" s="1">
+        <v>105.8414701</v>
+      </c>
+      <c r="F67" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="1">
+        <v>21.024549400000001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>105.81032039999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="1">
+        <v>21.026744799999999</v>
+      </c>
+      <c r="E69" s="1">
+        <v>105.8390768</v>
+      </c>
+      <c r="F69" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="1">
+        <v>21.042445000000001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>105.84426449999999</v>
+      </c>
+      <c r="F70" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1">
+        <v>21.044797899999999</v>
+      </c>
+      <c r="E71" s="1">
+        <v>105.81462620000001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21.009210599999999</v>
+      </c>
+      <c r="E72" s="1">
+        <v>105.83818170000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="1">
+        <v>21.0406361</v>
+      </c>
+      <c r="E73" s="1">
+        <v>105.87680450000001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20.996361799999999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>105.8673584</v>
+      </c>
+      <c r="F74" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
